--- a/src/test/resources/io.dingodb.test/testdata/mysqlcases/batchsql/mysql_batchsql_cases.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/mysqlcases/batchsql/mysql_batchsql_cases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
   <si>
     <t>TestID</t>
   </si>
@@ -140,6 +140,29 @@
   </si>
   <si>
     <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/batchsql/expectedresult/batch_003.csv</t>
+  </si>
+  <si>
+    <t>batch_004</t>
+  </si>
+  <si>
+    <t>批量操作语句4执行</t>
+  </si>
+  <si>
+    <t>batchsql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>batch04</t>
+  </si>
+  <si>
+    <t>batch_sql_04</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/batchsql/expectedresult/batch_004.csv</t>
+  </si>
+  <si>
+    <t>select account from $batch04 where account&lt;&gt;'6225880178560985'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -512,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -659,6 +682,37 @@
         <v>35</v>
       </c>
       <c r="M4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="M5" s="6" t="s">
         <v>11</v>
       </c>
     </row>

--- a/src/test/resources/io.dingodb.test/testdata/mysqlcases/batchsql/mysql_batchsql_cases.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/mysqlcases/batchsql/mysql_batchsql_cases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="56">
   <si>
     <t>TestID</t>
   </si>
@@ -158,11 +158,52 @@
     <t>batch_sql_04</t>
   </si>
   <si>
-    <t>src/test/resources/io.dingodb.test/testdata/cases/batchsql/expectedresult/batch_004.csv</t>
-  </si>
-  <si>
     <t>select account from $batch04 where account&lt;&gt;'6225880178560985'</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>batch_005</t>
+  </si>
+  <si>
+    <t>批量操作语句5执行</t>
+  </si>
+  <si>
+    <t>batchsql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>batch05</t>
+  </si>
+  <si>
+    <t>batch_sql_05</t>
+  </si>
+  <si>
+    <t>select * from $batch05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/batchsql/expectedresult/batch_004.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/batchsql/expectedresult/batch_005.csv</t>
+  </si>
+  <si>
+    <t>batch_006</t>
+  </si>
+  <si>
+    <t>批量操作语句6执行</t>
+  </si>
+  <si>
+    <t>batch06</t>
+  </si>
+  <si>
+    <t>batch_sql_06</t>
+  </si>
+  <si>
+    <t>select * from $batch06</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/batchsql/expectedresult/batch_006.csv</t>
   </si>
 </sst>
 </file>
@@ -535,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -707,12 +748,72 @@
         <v>40</v>
       </c>
       <c r="I5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A6" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="M5" s="6" t="s">
+      <c r="B6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="M7" s="6" t="s">
         <v>11</v>
       </c>
     </row>

--- a/src/test/resources/io.dingodb.test/testdata/mysqlcases/batchsql/mysql_batchsql_cases.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/mysqlcases/batchsql/mysql_batchsql_cases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="69">
   <si>
     <t>TestID</t>
   </si>
@@ -204,6 +204,46 @@
   </si>
   <si>
     <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/batchsql/expectedresult/batch_006.csv</t>
+  </si>
+  <si>
+    <t>batch_007</t>
+  </si>
+  <si>
+    <t>批量操作语句7执行</t>
+  </si>
+  <si>
+    <t>batchsql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>batch07</t>
+  </si>
+  <si>
+    <t>batch_sql_07</t>
+  </si>
+  <si>
+    <t>select * from $batch07</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/batchsql/expectedresult/batch_007.csv</t>
+  </si>
+  <si>
+    <t>batch_008</t>
+  </si>
+  <si>
+    <t>批量操作语句8执行</t>
+  </si>
+  <si>
+    <t>batch08</t>
+  </si>
+  <si>
+    <t>batch_sql_08</t>
+  </si>
+  <si>
+    <t>select * from $batch08</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/batchsql/expectedresult/batch_008.csv</t>
   </si>
 </sst>
 </file>
@@ -576,10 +616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -814,6 +854,68 @@
         <v>55</v>
       </c>
       <c r="M7" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A8" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A9" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="M9" s="6" t="s">
         <v>11</v>
       </c>
     </row>

--- a/src/test/resources/io.dingodb.test/testdata/mysqlcases/batchsql/mysql_batchsql_cases.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/mysqlcases/batchsql/mysql_batchsql_cases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="80">
   <si>
     <t>TestID</t>
   </si>
@@ -225,9 +225,6 @@
     <t>select * from $batch07</t>
   </si>
   <si>
-    <t>src/test/resources/io.dingodb.test/testdata/cases/batchsql/expectedresult/batch_007.csv</t>
-  </si>
-  <si>
     <t>batch_008</t>
   </si>
   <si>
@@ -243,7 +240,51 @@
     <t>select * from $batch08</t>
   </si>
   <si>
-    <t>src/test/resources/io.dingodb.test/testdata/cases/batchsql/expectedresult/batch_008.csv</t>
+    <t>batch_009</t>
+  </si>
+  <si>
+    <t>批量操作语句9执行</t>
+  </si>
+  <si>
+    <t>batchsql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MultiTable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>config_info,config_info_aggr,config_info_beta,config_info_tag,config_tags_relation,group_capacity,his_config_info,tenant_capacity,tenant_info,users,roles,permissions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>batch_sql_09</t>
+  </si>
+  <si>
+    <t>SingleTable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from mysql_users</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from mysql_roles</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/batchsql/expectedresult/batch_007.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/batchsql/expectedresult/batch_008.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/batchsql/expectedresult/batch_009_01.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/batchsql/expectedresult/batch_009_02.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -616,10 +657,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -692,6 +733,9 @@
       <c r="D2" s="6" t="s">
         <v>24</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="F2" s="6" t="s">
         <v>23</v>
       </c>
@@ -721,6 +765,9 @@
       <c r="D3" s="6" t="s">
         <v>25</v>
       </c>
+      <c r="E3" s="6" t="s">
+        <v>73</v>
+      </c>
       <c r="F3" s="1" t="s">
         <v>15</v>
       </c>
@@ -750,6 +797,9 @@
       <c r="D4" s="6" t="s">
         <v>24</v>
       </c>
+      <c r="E4" s="6" t="s">
+        <v>73</v>
+      </c>
       <c r="F4" s="6" t="s">
         <v>30</v>
       </c>
@@ -779,7 +829,9 @@
       <c r="D5" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="6"/>
+      <c r="E5" s="6" t="s">
+        <v>73</v>
+      </c>
       <c r="F5" s="6" t="s">
         <v>39</v>
       </c>
@@ -810,7 +862,9 @@
       <c r="D6" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="6"/>
+      <c r="E6" s="6" t="s">
+        <v>73</v>
+      </c>
       <c r="F6" s="6" t="s">
         <v>45</v>
       </c>
@@ -841,6 +895,9 @@
       <c r="D7" s="6" t="s">
         <v>24</v>
       </c>
+      <c r="E7" s="6" t="s">
+        <v>73</v>
+      </c>
       <c r="F7" s="6" t="s">
         <v>52</v>
       </c>
@@ -870,7 +927,9 @@
       <c r="D8" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="6"/>
+      <c r="E8" s="6" t="s">
+        <v>73</v>
+      </c>
       <c r="F8" s="6" t="s">
         <v>59</v>
       </c>
@@ -882,7 +941,7 @@
         <v>61</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="M8" s="6" t="s">
         <v>11</v>
@@ -890,32 +949,73 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E9" s="6"/>
+      <c r="E9" s="6" t="s">
+        <v>73</v>
+      </c>
       <c r="F9" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="J9" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A10" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="B10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="M9" s="6" t="s">
+      <c r="D10" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M10" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -926,7 +1026,7 @@
       <formula1>"y,n"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M1048576">
-      <formula1>"csv_equals,csv_containsAll,string_equals,effected_rows_assert,assertNull,SQLException"</formula1>
+      <formula1>"csv_equals,csv_containsAll,string_equals,effected_rows_assert,assertNull,justExec,SQLException"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/io.dingodb.test/testdata/mysqlcases/batchsql/mysql_batchsql_cases.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/mysqlcases/batchsql/mysql_batchsql_cases.xlsx
@@ -309,18 +309,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>select p.id pid, r.id rid, r.name rname, r.`type`, r.`key`, o.code, o.name oname, r.rel_id from MYJARVEX.PERMISSION as p left join MYJARVEX.RESOURCE as r on r.id = p.RESOURCE_ID and r.parent_id = 6 left join MYJARVEX.OPERATION as o on o.id = p.OPERATION_ID where r.id in (1, 3, 6, 8, 9, 21, 22, 23, 24, 33, 34, 35, 36, 37, 38, 39, 40, 66, 67, 68)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MYJARVEX.CHAT_QU_DATA,MYJARVEX.CHAT_SE_DATA,MYJARVEX.COMMENT_BASE_INFO,MYJARVEX.CREATIVE_BASE_INFO,MYJARVEX.CREATIVE_QU_DATA,MYJARVEX.CREATIVE_SE_DATA,MYJARVEX.DATA_FILE,MYJARVEX.DATA_FILE_EXPERTISE,MYJARVEX.DATA_FILEFT,MYJARVEX.DATA_FILESET,MYJARVEX.DATA_FT_LIST,MYJARVEX.DATASET_DINGO,MYJARVEX.DATASET_FT_LIST,MYJARVEX.DEPARTMENT,MYJARVEX.MODEL_BASE_INFO,MYJARVEX.OPERATION,MYJARVEX.PERMISSION,MYJARVEX.PERMISSIONGROUP,MYJARVEX.REL_PGROUP_PERMISSION,MYJARVEX.REL_ROLE_PERMISSION,MYJARVEX.REL_ROLE_PGROUP,MYJARVEX.REL_USER_PERMISSION,MYJARVEX.REL_USER_ROLE,MYJARVEX.REL_USERGROUP_ROLE,MYJARVEX.REL_USERGROUP_USER,MYJARVEX.RESOURCE,MYJARVEX.ROLE,MYJARVEX.USER,MYJARVEX.USER_BASE,MYJARVEX.USERGROUP,MYJARVEX.VECTOR_DATA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sub_component</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>MYJARVEX</t>
-  </si>
-  <si>
-    <t>select p.id pid, r.id rid, r.name rname, r.`type`, r.`key`, o.code, o.name oname, r.rel_id from MYJARVEX.PERMISSION as p left join MYJARVEX.RESOURCE as r on r.id = p.RESOURCE_ID and r.parent_id = 6 left join MYJARVEX.OPERATION as o on o.id = p.OPERATION_ID where r.id in (1, 3, 6, 8, 9, 21, 22, 23, 24, 33, 34, 35, 36, 37, 38, 39, 40, 66, 67, 68)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MYJARVEX.CHAT_QU_DATA,MYJARVEX.CHAT_SE_DATA,MYJARVEX.COMMENT_BASE_INFO,MYJARVEX.CREATIVE_BASE_INFO,MYJARVEX.CREATIVE_QU_DATA,MYJARVEX.CREATIVE_SE_DATA,MYJARVEX.DATA_FILE,MYJARVEX.DATA_FILE_EXPERTISE,MYJARVEX.DATA_FILEFT,MYJARVEX.DATA_FILESET,MYJARVEX.DATA_FT_LIST,MYJARVEX.DATASET_DINGO,MYJARVEX.DATASET_FT_LIST,MYJARVEX.DEPARTMENT,MYJARVEX.MODEL_BASE_INFO,MYJARVEX.OPERATION,MYJARVEX.PERMISSION,MYJARVEX.PERMISSIONGROUP,MYJARVEX.REL_PGROUP_PERMISSION,MYJARVEX.REL_ROLE_PERMISSION,MYJARVEX.REL_ROLE_PGROUP,MYJARVEX.REL_USER_PERMISSION,MYJARVEX.REL_USER_ROLE,MYJARVEX.REL_USERGROUP_ROLE,MYJARVEX.REL_USERGROUP_USER,MYJARVEX.RESOURCE,MYJARVEX.ROLE,MYJARVEX.USER,MYJARVEX.USER_BASE,MYJARVEX.USERGROUP,MYJARVEX.VECTOR_DATA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sub_component</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -697,7 +698,7 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -731,7 +732,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>82</v>
@@ -1077,17 +1078,17 @@
         <v>84</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="6" t="s">
         <v>81</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K11" s="8" t="s">
         <v>85</v>

--- a/src/test/resources/io.dingodb.test/testdata/mysqlcases/batchsql/mysql_batchsql_cases.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/mysqlcases/batchsql/mysql_batchsql_cases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="97">
   <si>
     <t>TestID</t>
   </si>
@@ -323,6 +323,29 @@
   <si>
     <t>MYJARVEX</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>batch_011</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>批量操作语句11执行</t>
+  </si>
+  <si>
+    <t>batch011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>batch_sql_11</t>
+  </si>
+  <si>
+    <t>select * from $batch011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/batchsql/expectedresult/batch_011.csv</t>
   </si>
 </sst>
 </file>
@@ -695,10 +718,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1094,6 +1117,38 @@
         <v>85</v>
       </c>
       <c r="N11" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A12" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="N12" s="1" t="s">
         <v>10</v>
       </c>
     </row>

--- a/src/test/resources/io.dingodb.test/testdata/mysqlcases/batchsql/mysql_batchsql_cases.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/mysqlcases/batchsql/mysql_batchsql_cases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="103">
   <si>
     <t>TestID</t>
   </si>
@@ -290,9 +290,6 @@
     <t>批量操作语句10执行</t>
   </si>
   <si>
-    <t>batch_sql_10</t>
-  </si>
-  <si>
     <t>Schema</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -338,14 +335,38 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>batch_sql_11</t>
-  </si>
-  <si>
     <t>select * from $batch011</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/batchsql/expectedresult/batch_011.csv</t>
+  </si>
+  <si>
+    <t>batch_012</t>
+  </si>
+  <si>
+    <t>批量操作语句12执行</t>
+  </si>
+  <si>
+    <t>batch012</t>
+  </si>
+  <si>
+    <t>select * from $batch012</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/batchsql/expectedresult/batch_012.csv</t>
+  </si>
+  <si>
+    <t>batch_sql_010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>batch_sql_011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>batch_sql_012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -718,10 +739,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -755,10 +776,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>13</v>
@@ -1095,26 +1116,26 @@
         <v>80</v>
       </c>
       <c r="D11" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>84</v>
-      </c>
       <c r="F11" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="6" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N11" s="6" t="s">
         <v>10</v>
@@ -1122,13 +1143,13 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="6" t="s">
         <v>91</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>92</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>23</v>
@@ -1137,18 +1158,50 @@
         <v>72</v>
       </c>
       <c r="G12" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="K12" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="N12" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A13" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="K12" s="8" t="s">
+      <c r="B13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="D13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="N13" s="6" t="s">
         <v>10</v>
       </c>
     </row>

--- a/src/test/resources/io.dingodb.test/testdata/mysqlcases/batchsql/mysql_batchsql_cases.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/mysqlcases/batchsql/mysql_batchsql_cases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="122">
   <si>
     <t>TestID</t>
   </si>
@@ -325,9 +325,6 @@
     <t>batch_011</t>
   </si>
   <si>
-    <t>n</t>
-  </si>
-  <si>
     <t>批量操作语句11执行</t>
   </si>
   <si>
@@ -335,10 +332,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>select * from $batch011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/batchsql/expectedresult/batch_011.csv</t>
   </si>
   <si>
@@ -366,6 +359,74 @@
   </si>
   <si>
     <t>batch_sql_012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>batch_013</t>
+  </si>
+  <si>
+    <t>批量操作语句13执行</t>
+  </si>
+  <si>
+    <t>batchsql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SingleTable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>batch013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>batch_sql_013</t>
+  </si>
+  <si>
+    <t>select * from $batch013</t>
+  </si>
+  <si>
+    <t>batch_014</t>
+  </si>
+  <si>
+    <t>批量操作语句14执行</t>
+  </si>
+  <si>
+    <t>batch014</t>
+  </si>
+  <si>
+    <t>batch_sql_014</t>
+  </si>
+  <si>
+    <t>select * from $batch014</t>
+  </si>
+  <si>
+    <t>batch_015</t>
+  </si>
+  <si>
+    <t>批量操作语句15执行</t>
+  </si>
+  <si>
+    <t>batch015</t>
+  </si>
+  <si>
+    <t>batch_sql_015</t>
+  </si>
+  <si>
+    <t>select id,name,age from $batch015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/batchsql/expectedresult/batch_013.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/batchsql/expectedresult/batch_014.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/batchsql/expectedresult/batch_015.csv</t>
+  </si>
+  <si>
+    <t>select id,name,age from $batch011</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -739,10 +800,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1129,7 +1190,7 @@
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>85</v>
@@ -1145,11 +1206,11 @@
       <c r="A12" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>90</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>91</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>23</v>
@@ -1158,16 +1219,16 @@
         <v>72</v>
       </c>
       <c r="G12" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="K12" s="8" t="s">
         <v>92</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>94</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>10</v>
@@ -1175,13 +1236,13 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>23</v>
@@ -1190,18 +1251,117 @@
         <v>72</v>
       </c>
       <c r="G13" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K13" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="N13" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A14" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="J13" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="N13" s="6" t="s">
+      <c r="D14" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A15" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A16" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="N16" s="6" t="s">
         <v>10</v>
       </c>
     </row>

--- a/src/test/resources/io.dingodb.test/testdata/mysqlcases/batchsql/mysql_batchsql_cases.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/mysqlcases/batchsql/mysql_batchsql_cases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="128">
   <si>
     <t>TestID</t>
   </si>
@@ -427,6 +427,26 @@
   </si>
   <si>
     <t>select id,name,age from $batch011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>batch_016</t>
+  </si>
+  <si>
+    <t>批量操作语句16执行</t>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>batch_sql_016</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/batchsql/expectedresult/batch_016.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select m.name as n from M as m order by m.name </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -800,10 +820,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1362,6 +1382,38 @@
         <v>120</v>
       </c>
       <c r="N16" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A17" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="N17" s="6" t="s">
         <v>10</v>
       </c>
     </row>

--- a/src/test/resources/io.dingodb.test/testdata/mysqlcases/batchsql/mysql_batchsql_cases.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/mysqlcases/batchsql/mysql_batchsql_cases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="130">
   <si>
     <t>TestID</t>
   </si>
@@ -436,18 +436,25 @@
     <t>批量操作语句16执行</t>
   </si>
   <si>
-    <t>M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>batch_sql_016</t>
   </si>
   <si>
     <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/batchsql/expectedresult/batch_016.csv</t>
   </si>
   <si>
-    <t xml:space="preserve">select m.name as n from M as m order by m.name </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>select m.name as n from S.M as m order by m.name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S.M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
   </si>
 </sst>
 </file>
@@ -823,7 +830,7 @@
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -892,7 +899,7 @@
         <v>25</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>6</v>
+        <v>129</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
@@ -924,7 +931,7 @@
         <v>26</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>6</v>
+        <v>129</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>9</v>
@@ -956,7 +963,7 @@
         <v>27</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>6</v>
+        <v>129</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>28</v>
@@ -988,7 +995,7 @@
         <v>35</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>6</v>
+        <v>129</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>36</v>
@@ -1021,7 +1028,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>6</v>
+        <v>129</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>42</v>
@@ -1054,7 +1061,7 @@
         <v>49</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>6</v>
+        <v>129</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>50</v>
@@ -1086,7 +1093,7 @@
         <v>55</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>6</v>
+        <v>129</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>56</v>
@@ -1119,7 +1126,7 @@
         <v>61</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>6</v>
+        <v>129</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>62</v>
@@ -1152,7 +1159,7 @@
         <v>66</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>6</v>
+        <v>129</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>67</v>
@@ -1191,7 +1198,7 @@
         <v>79</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>6</v>
+        <v>129</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>80</v>
@@ -1227,7 +1234,7 @@
         <v>89</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>6</v>
+        <v>129</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>90</v>
@@ -1258,8 +1265,8 @@
       <c r="A13" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>6</v>
+      <c r="B13" s="6" t="s">
+        <v>129</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>94</v>
@@ -1291,7 +1298,7 @@
         <v>101</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>6</v>
+        <v>129</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>102</v>
@@ -1324,7 +1331,7 @@
         <v>108</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>6</v>
+        <v>129</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>109</v>
@@ -1357,7 +1364,7 @@
         <v>113</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>6</v>
+        <v>129</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>114</v>
@@ -1399,19 +1406,22 @@
         <v>23</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>72</v>
+        <v>81</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="G17" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I17" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="I17" s="6" t="s">
+      <c r="J17" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="K17" s="8" t="s">
         <v>125</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="K17" s="8" t="s">
-        <v>126</v>
       </c>
       <c r="N17" s="6" t="s">
         <v>10</v>
